--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Il1rap</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.28716107294838</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H2">
-        <v>4.28716107294838</v>
+        <v>0.068609</v>
       </c>
       <c r="I2">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="J2">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.81081479095575</v>
+        <v>3.240187666666666</v>
       </c>
       <c r="N2">
-        <v>2.81081479095575</v>
+        <v>9.720562999999999</v>
       </c>
       <c r="O2">
-        <v>0.09908221282571067</v>
+        <v>0.09865275843473079</v>
       </c>
       <c r="P2">
-        <v>0.09908221282571067</v>
+        <v>0.1091454159637843</v>
       </c>
       <c r="Q2">
-        <v>12.05041575505303</v>
+        <v>0.0741020118741111</v>
       </c>
       <c r="R2">
-        <v>12.05041575505303</v>
+        <v>0.6669181068669999</v>
       </c>
       <c r="S2">
-        <v>0.03741816112999686</v>
+        <v>0.000168870554843663</v>
       </c>
       <c r="T2">
-        <v>0.03741816112999686</v>
+        <v>0.0001868315417114363</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -599,49 +599,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.28716107294838</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H3">
-        <v>4.28716107294838</v>
+        <v>0.068609</v>
       </c>
       <c r="I3">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="J3">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.85705698945337</v>
+        <v>8.637706333333334</v>
       </c>
       <c r="N3">
-        <v>7.85705698945337</v>
+        <v>25.913119</v>
       </c>
       <c r="O3">
-        <v>0.2769640302583039</v>
+        <v>0.2629889512569831</v>
       </c>
       <c r="P3">
-        <v>0.2769640302583039</v>
+        <v>0.2909603232008314</v>
       </c>
       <c r="Q3">
-        <v>33.68446887312147</v>
+        <v>0.1975414646078889</v>
       </c>
       <c r="R3">
-        <v>33.68446887312147</v>
+        <v>1.777873181471</v>
       </c>
       <c r="S3">
-        <v>0.1045948048177759</v>
+        <v>0.0004501758574333471</v>
       </c>
       <c r="T3">
-        <v>0.1045948048177759</v>
+        <v>0.0004980563341158237</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.28716107294838</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H4">
-        <v>4.28716107294838</v>
+        <v>0.068609</v>
       </c>
       <c r="I4">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="J4">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.15128893857904</v>
+        <v>3.343997</v>
       </c>
       <c r="N4">
-        <v>3.15128893857904</v>
+        <v>10.031991</v>
       </c>
       <c r="O4">
-        <v>0.11108404662316</v>
+        <v>0.1018134016252344</v>
       </c>
       <c r="P4">
-        <v>0.11108404662316</v>
+        <v>0.1126422235666741</v>
       </c>
       <c r="Q4">
-        <v>13.51008326708888</v>
+        <v>0.07647609672433334</v>
       </c>
       <c r="R4">
-        <v>13.51008326708888</v>
+        <v>0.688284870519</v>
       </c>
       <c r="S4">
-        <v>0.04195062501106057</v>
+        <v>0.0001742808401485217</v>
       </c>
       <c r="T4">
-        <v>0.04195062501106057</v>
+        <v>0.0001928172622270185</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.28716107294838</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H5">
-        <v>4.28716107294838</v>
+        <v>0.068609</v>
       </c>
       <c r="I5">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="J5">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.08915051117498</v>
+        <v>8.150031666666665</v>
       </c>
       <c r="N5">
-        <v>5.08915051117498</v>
+        <v>24.450095</v>
       </c>
       <c r="O5">
-        <v>0.1793943505893028</v>
+        <v>0.2481409066266243</v>
       </c>
       <c r="P5">
-        <v>0.1793943505893028</v>
+        <v>0.2745330480476329</v>
       </c>
       <c r="Q5">
-        <v>21.81800796588472</v>
+        <v>0.1863885075394444</v>
       </c>
       <c r="R5">
-        <v>21.81800796588472</v>
+        <v>1.677496567855</v>
       </c>
       <c r="S5">
-        <v>0.06774784822346878</v>
+        <v>0.0004247594618367549</v>
       </c>
       <c r="T5">
-        <v>0.06774784822346878</v>
+        <v>0.0004699366635287565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -785,49 +785,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>4.28716107294838</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H6">
-        <v>4.28716107294838</v>
+        <v>0.068609</v>
       </c>
       <c r="I6">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="J6">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.46019922993406</v>
+        <v>9.472446999999999</v>
       </c>
       <c r="N6">
-        <v>9.46019922993406</v>
+        <v>18.944894</v>
       </c>
       <c r="O6">
-        <v>0.3334753597035227</v>
+        <v>0.2884039820564273</v>
       </c>
       <c r="P6">
-        <v>0.3334753597035227</v>
+        <v>0.2127189892210772</v>
       </c>
       <c r="Q6">
-        <v>40.55739788090955</v>
+        <v>0.2166317054076666</v>
       </c>
       <c r="R6">
-        <v>40.55739788090955</v>
+        <v>1.299790232446</v>
       </c>
       <c r="S6">
-        <v>0.1259361734706047</v>
+        <v>0.0004936804732248095</v>
       </c>
       <c r="T6">
-        <v>0.1259361734706047</v>
+        <v>0.0003641253859040612</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.06511795466639</v>
+        <v>5.046308333333333</v>
       </c>
       <c r="H7">
-        <v>7.06511795466639</v>
+        <v>15.138925</v>
       </c>
       <c r="I7">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="J7">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.81081479095575</v>
+        <v>3.240187666666666</v>
       </c>
       <c r="N7">
-        <v>2.81081479095575</v>
+        <v>9.720562999999999</v>
       </c>
       <c r="O7">
-        <v>0.09908221282571067</v>
+        <v>0.09865275843473079</v>
       </c>
       <c r="P7">
-        <v>0.09908221282571067</v>
+        <v>0.1091454159637843</v>
       </c>
       <c r="Q7">
-        <v>19.85873804682333</v>
+        <v>16.35098602386389</v>
       </c>
       <c r="R7">
-        <v>19.85873804682333</v>
+        <v>147.158874214775</v>
       </c>
       <c r="S7">
-        <v>0.06166405169571381</v>
+        <v>0.03726214730555177</v>
       </c>
       <c r="T7">
-        <v>0.06166405169571381</v>
+        <v>0.0412253304610737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.06511795466639</v>
+        <v>5.046308333333333</v>
       </c>
       <c r="H8">
-        <v>7.06511795466639</v>
+        <v>15.138925</v>
       </c>
       <c r="I8">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="J8">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.85705698945337</v>
+        <v>8.637706333333334</v>
       </c>
       <c r="N8">
-        <v>7.85705698945337</v>
+        <v>25.913119</v>
       </c>
       <c r="O8">
-        <v>0.2769640302583039</v>
+        <v>0.2629889512569831</v>
       </c>
       <c r="P8">
-        <v>0.2769640302583039</v>
+        <v>0.2909603232008314</v>
       </c>
       <c r="Q8">
-        <v>55.51103440702406</v>
+        <v>43.58852945078611</v>
       </c>
       <c r="R8">
-        <v>55.51103440702406</v>
+        <v>392.296765057075</v>
       </c>
       <c r="S8">
-        <v>0.172369225440528</v>
+        <v>0.09933359387972619</v>
       </c>
       <c r="T8">
-        <v>0.172369225440528</v>
+        <v>0.1098986647226223</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.06511795466639</v>
+        <v>5.046308333333333</v>
       </c>
       <c r="H9">
-        <v>7.06511795466639</v>
+        <v>15.138925</v>
       </c>
       <c r="I9">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="J9">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.15128893857904</v>
+        <v>3.343997</v>
       </c>
       <c r="N9">
-        <v>3.15128893857904</v>
+        <v>10.031991</v>
       </c>
       <c r="O9">
-        <v>0.11108404662316</v>
+        <v>0.1018134016252344</v>
       </c>
       <c r="P9">
-        <v>0.11108404662316</v>
+        <v>0.1126422235666741</v>
       </c>
       <c r="Q9">
-        <v>22.26422806029637</v>
+        <v>16.87483992774166</v>
       </c>
       <c r="R9">
-        <v>22.26422806029637</v>
+        <v>151.873559349675</v>
       </c>
       <c r="S9">
-        <v>0.06913342161209944</v>
+        <v>0.03845595429091604</v>
       </c>
       <c r="T9">
-        <v>0.06913342161209944</v>
+        <v>0.04254611015406384</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.06511795466639</v>
+        <v>5.046308333333333</v>
       </c>
       <c r="H10">
-        <v>7.06511795466639</v>
+        <v>15.138925</v>
       </c>
       <c r="I10">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="J10">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.08915051117498</v>
+        <v>8.150031666666665</v>
       </c>
       <c r="N10">
-        <v>5.08915051117498</v>
+        <v>24.450095</v>
       </c>
       <c r="O10">
-        <v>0.1793943505893028</v>
+        <v>0.2481409066266243</v>
       </c>
       <c r="P10">
-        <v>0.1793943505893028</v>
+        <v>0.2745330480476329</v>
       </c>
       <c r="Q10">
-        <v>35.95544865050199</v>
+        <v>41.12757271643055</v>
       </c>
       <c r="R10">
-        <v>35.95544865050199</v>
+        <v>370.148154447875</v>
       </c>
       <c r="S10">
-        <v>0.111646502365834</v>
+        <v>0.09372533684774585</v>
       </c>
       <c r="T10">
-        <v>0.111646502365834</v>
+        <v>0.1036939163070746</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.06511795466639</v>
+        <v>5.046308333333333</v>
       </c>
       <c r="H11">
-        <v>7.06511795466639</v>
+        <v>15.138925</v>
       </c>
       <c r="I11">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="J11">
-        <v>0.6223523873470932</v>
+        <v>0.3777101410722805</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.46019922993406</v>
+        <v>9.472446999999999</v>
       </c>
       <c r="N11">
-        <v>9.46019922993406</v>
+        <v>18.944894</v>
       </c>
       <c r="O11">
-        <v>0.3334753597035227</v>
+        <v>0.2884039820564273</v>
       </c>
       <c r="P11">
-        <v>0.3334753597035227</v>
+        <v>0.2127189892210772</v>
       </c>
       <c r="Q11">
-        <v>66.83742343412828</v>
+        <v>47.80088823315833</v>
       </c>
       <c r="R11">
-        <v>66.83742343412828</v>
+        <v>286.80532939895</v>
       </c>
       <c r="S11">
-        <v>0.207539186232918</v>
+        <v>0.1089331087483406</v>
       </c>
       <c r="T11">
-        <v>0.207539186232918</v>
+        <v>0.08034611942744596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8.291088999999999</v>
+      </c>
+      <c r="H12">
+        <v>24.873267</v>
+      </c>
+      <c r="I12">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="J12">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.240187666666666</v>
+      </c>
+      <c r="N12">
+        <v>9.720562999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.09865275843473079</v>
+      </c>
+      <c r="P12">
+        <v>0.1091454159637843</v>
+      </c>
+      <c r="Q12">
+        <v>26.86468432103566</v>
+      </c>
+      <c r="R12">
+        <v>241.782158889321</v>
+      </c>
+      <c r="S12">
+        <v>0.06122174057433535</v>
+      </c>
+      <c r="T12">
+        <v>0.06773325396099915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8.291088999999999</v>
+      </c>
+      <c r="H13">
+        <v>24.873267</v>
+      </c>
+      <c r="I13">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="J13">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.637706333333334</v>
+      </c>
+      <c r="N13">
+        <v>25.913119</v>
+      </c>
+      <c r="O13">
+        <v>0.2629889512569831</v>
+      </c>
+      <c r="P13">
+        <v>0.2909603232008314</v>
+      </c>
+      <c r="Q13">
+        <v>71.61599196553033</v>
+      </c>
+      <c r="R13">
+        <v>644.543927689773</v>
+      </c>
+      <c r="S13">
+        <v>0.1632051815198236</v>
+      </c>
+      <c r="T13">
+        <v>0.1805636021440932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8.291088999999999</v>
+      </c>
+      <c r="H14">
+        <v>24.873267</v>
+      </c>
+      <c r="I14">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="J14">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.343997</v>
+      </c>
+      <c r="N14">
+        <v>10.031991</v>
+      </c>
+      <c r="O14">
+        <v>0.1018134016252344</v>
+      </c>
+      <c r="P14">
+        <v>0.1126422235666741</v>
+      </c>
+      <c r="Q14">
+        <v>27.725376742733</v>
+      </c>
+      <c r="R14">
+        <v>249.528390684597</v>
+      </c>
+      <c r="S14">
+        <v>0.06318316649416984</v>
+      </c>
+      <c r="T14">
+        <v>0.06990329615038327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.291088999999999</v>
+      </c>
+      <c r="H15">
+        <v>24.873267</v>
+      </c>
+      <c r="I15">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="J15">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.150031666666665</v>
+      </c>
+      <c r="N15">
+        <v>24.450095</v>
+      </c>
+      <c r="O15">
+        <v>0.2481409066266243</v>
+      </c>
+      <c r="P15">
+        <v>0.2745330480476329</v>
+      </c>
+      <c r="Q15">
+        <v>67.57263790115165</v>
+      </c>
+      <c r="R15">
+        <v>608.1537411103649</v>
+      </c>
+      <c r="S15">
+        <v>0.1539908103170417</v>
+      </c>
+      <c r="T15">
+        <v>0.1703691950770296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.291088999999999</v>
+      </c>
+      <c r="H16">
+        <v>24.873267</v>
+      </c>
+      <c r="I16">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="J16">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.472446999999999</v>
+      </c>
+      <c r="N16">
+        <v>18.944894</v>
+      </c>
+      <c r="O16">
+        <v>0.2884039820564273</v>
+      </c>
+      <c r="P16">
+        <v>0.2127189892210772</v>
+      </c>
+      <c r="Q16">
+        <v>78.53690112478299</v>
+      </c>
+      <c r="R16">
+        <v>471.2214067486979</v>
+      </c>
+      <c r="S16">
+        <v>0.1789771928348619</v>
+      </c>
+      <c r="T16">
+        <v>0.1320087444077271</v>
       </c>
     </row>
   </sheetData>
